--- a/transcript_samples.xlsx
+++ b/transcript_samples.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kg/Alibaba/Work/proj/lawtech/姬长阵/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\changzhen.jcz\Desktop\Research\实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8E77B5-E217-C444-9789-DCC943E8979B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4980" yWindow="-21140" windowWidth="32880" windowHeight="18320" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="case1" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="248">
   <si>
     <t>zh_role</t>
   </si>
@@ -284,9 +283,6 @@
     <t>The loan amount is 240000 yuan, and the loan period is from July 25, 2016 to July 17, 2019.</t>
   </si>
   <si>
-    <t>In addition to the repayment approved by the plaintiff, we will repay the principal of RMB 1000 on September 15, 2019.</t>
-  </si>
-  <si>
     <t>The two defendants, as guarantors, sign and stamp the guaranteed loan contract, so they shall bear the guarantee responsibility.</t>
   </si>
   <si>
@@ -309,16 +305,6 @@
   </si>
   <si>
     <t>At present, there is no repayment ability, no mediation.</t>
-  </si>
-  <si>
-    <t>End of statement.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The defendant Wang x returned the principal of RMB 1000 to the plaintiff on September 15, 2019.</t>
-  </si>
-  <si>
-    <t>In view of the fact that the two parties have not reached a specific mediation plan, the court will no longer conduct mediation proceedings. In view of the fact that the case is clear and the evidence is sufficient, the court pronounced it in court. The court believes that the guarantee loan contract and the joint debt confirmation involved in the case are the true intention of all parties, are legal and effective, and have legal binding force on all parties. The plaintiff has fulfilled the loan obligation according to the contract, and the defendant Wang x has failed to repay the loan according to the contract, which has constituted a breach of contract. The plaintiff has the right to require him to repay all the loan principal and interest, to require the joint repayment person to bear the joint repayment responsibility, and to require the guarantor to bear the guarantee responsibility according to the contract. The plaintiff claimed that the loan principal and related interest fees were wrong, and the court adjusted them according to law. Until September 15, 2019, the defendant Wang x still owed the plaintiff 152000 yuan of loan principal, 984 yuan of default interest and 0.11 yuan of compound interest. To sum up, in accordance with articles 205, 206 and 207 of the people's Republic of China, Article 18 and 31 of the guarantee law of the people's Republic of China, Article 64, paragraph 1 and 144 of the Civil Procedure Law of the people's Republic of China, the judgment is as follows: all the defendants stand up, the defendant Wang x takes effect in this judgment Within ten days from the date of repayment, the principal of the loan of suix bank is 152000 yuan, the default interest is 984 yuan, and the compound interest is 0.11 yuan (the default interest temporarily calculated to September 15, 2019, and then to the date of actual settlement, based on the unpaid principal, is calculated according to the standard of monthly interest rate of 7.7187495 ‰); 2. The defendant Lin x shall be jointly responsible for the repayment of the above debts of the defendant Wang x; 3. The defendant Wang x and Zhang x shall be jointly responsible for the repayment of the above debts of the defendant Wang x The defendant Wang x and Zhang x shall have the right to recover from the defendant Wang x and Zhang x after they bear the guarantee liability. Fourthly, they shall reject other claims of the plaintiff x bank. If the defendant fails to perform the obligation of payment of money within the period specified in this judgment, he shall double the interest on the debt during the period of delay in performance in accordance with Article 253 of the Civil Procedure Law of the people's Republic of China. The case acceptance fee is 3379.24 yuan, half of which is 1689.62 yuan. The plaintiff x bank shall bear 9.62 yuan, and the defendant Wang x, Lin x, Wang x and Zhang x shall jointly bear 1680 yuan. Please sit down. The plaintiff x bank shall apply to the court for refund within 15 days from the effective date of this judgment; the defendant Wang x, Lin x, Wang x and Zhang x shall pay the court the legal fees to be borne within 7 days from the effective date of this judgment. The judgment has been delivered to both parties electronically. Have you received it?</t>
   </si>
   <si>
     <t>Court Debate</t>
@@ -2183,777 +2169,2323 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原告代理人出示证件。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出示完毕。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被告陈述被告的身份情况以及代理人身份情况和代理权限。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈述完毕。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被告代理人出示证件。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有异议。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当事人对各方出庭人员没有异议，到庭当事人及其他诉讼参与人符合法律规定，可以参加本案诉讼。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原告是否听清？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被告是否听清？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据以上规定，各方当事人如果认为审判人员、书记员及鉴定人、勘验人等与本案有利害关系或其他关系，可能影响到本案的公正审理的，应当说明理由，申请回避。原告是否申请回避？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在以下的庭审过程中，有必要提醒各方当事人：庭审中如果对法官的指令和相对方的意见没有理解，可以要求进一步解释；各方均有平等的机会陈述和辩解，因此一方在发言的过程中，相对方未经法官许可不得打断其陈述；要尊重相对方的人格，不得以攻击性的言辞侮辱他人。原告是否听清？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据《中华人民共和国民事诉讼法》第一百三十八条的规定，现在进行法庭调查。原告陈述起诉的诉讼请求以及事实和理由。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下面由双方当事人进行举证质证。提醒各方注意，举证时应对证据名称及证明内容作简要说明，并出示证据原件。下面由原告举证。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保证借款合同，证明相关被告的借款担保关系。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>共同债务确认书，证明第二被告的债务事实。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>借款借据，证明原告放款的事实。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>普通贷款还本还息清单，证明截至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日所欠贷款本息情况。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对被告提交的证据的真实性、合法性和关联性均无异议。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双方当事人有无新证据提供？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双方当事人在事实方面有无补充？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双方当事人是否需要向对方发问？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下面进行法庭询问，由主审法官主持法庭询问。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证据是没有的。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原告方对被告的陈述是否有异议？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原告陈述案涉贷款的借款金额和借款期限。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>借款金额为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万，借款期限为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>除了原告认可的还款外，我方于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日归还本金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两被告以保证人的身份在《保证借款合同》上签名捺印，故应当承担保证责任。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我方认为原告的诉请中本金应减去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元，对于其他的未还款项，我方都是认可的，但是目前还款能力有限，希望原告对利息予以减免。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法庭辩论结束，下面根据告规定，由双方当事人做最后陈述。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请法院依法判决。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>希望原告免除其他三个被告的责任。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据法律规定征询一下双方当事人的意见，是否愿意调解？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同意调解。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目前没有还款能力，不调解了。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鉴于双方未达成具体的调解方案，本庭不再进行调解程序。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>今天开庭到此结束，闭庭！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被告&lt;personname&gt;答辩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被告&lt;personname&gt;、&lt;personname&gt;、&lt;personname&gt;未到庭，庭前也未向本院提交书面的答辩意见，视为放弃答辩的权利。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被告&lt;personname&gt;发表质证意见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对上述证据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至证据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的真实性、合法性和关联性均无异议。对证据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，被告&lt;personname&gt;于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日曾归还本金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元，故原告的清单不全面。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面由被告&lt;personname&gt;举证。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还款凭证，证明被告&lt;personname&gt;于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日归还本金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被告&lt;personname&gt;、&lt;personname&gt;、&lt;personname&gt;未到庭，庭前也未向本院提交书面的质证意见，视为放弃举证、质证的权利。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有异议，合同中的主要条款，双方都是知道的，而且被告&lt;personname&gt;的陈述明显与原告的举证不符。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被告&lt;personname&gt;陈述案涉贷款的还款情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原告陈述要求被告&lt;personname&gt;、&lt;personname&gt;承担保证责任的依据？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>今天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法院依照《中华人民共和国民事诉讼法》第一百三十四条之规定，将对原告&lt;personname&gt;诉被告&lt;personname&gt;、&lt;personname&gt;、&lt;personname&gt;、&lt;personname&gt;金融借款合同纠纷一案进行公开审理。现在核对当事人及其诉讼代理人身份及委托权限。原告陈述原告的身份情况以及代理人身份情况和代理权限。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法院，今天依法公开审理原告&lt;personname&gt;诉被告&lt;personname&gt;、&lt;personname&gt;、&lt;personname&gt;、&lt;personname&gt;金融借款合同纠纷一案，现在开庭。根据《中华人民共和国民事诉讼法》第三十九条第二款之规定，本案适用简易程序。根据国家法律规定，民事诉讼当事人在诉讼活动享有以下权利和义务：原、被告及第三人在诉讼中地位是平等的，有申请回避、提供证据、陈述事实，进行辩论，请求调解，申请执行等权利。原告可以放弃或变更诉讼请求，被告可以承认或反驳原告的诉讼请求，提起反诉；经本院许可，当事人可以查阅本案的庭审材料。双方当事人也有义务遵守诉讼程序，自觉履行已发生法律效力的判决、裁定和调解。必须到庭的当事人经人民法院依法传唤，无正当理由不到或者未经许可中途退庭者，对原告本庭按自动撤诉处理；对被告可以缺席判决，诉讼当事人发言或提供证据必须实事求是，制造伪证或捏造事实者要负法律责任。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被告&lt;personname&gt;、&lt;personname&gt;归还原告&lt;personname&gt;借款本金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>153000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元、罚息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>960.22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元、复利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1.65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂算至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日，此后至实际清偿之日止的罚息和复利，以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>153961.87</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元为基数，按照月利率千分之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7.7187495</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的标准另行计算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被告&lt;personname&gt;对被告&lt;personname&gt;的上述付款义务承担连带保证责任；被告&lt;personname&gt;对被告&lt;personname&gt;的上述付款义务承担连带保证责任；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本案案件受理费、保全费由各被告负担。陈述完毕。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>答辩人与原告&lt;personname&gt;之间金融借款合同纠纷一案，针对原告的诉讼请求，答辩人答辩如下：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>答辩人&lt;personname&gt;对本案存在借款关系没有异议，但对部分事实有异议。事实上，本案签订合同时，原告让答辩人&lt;personname&gt;所签订的系一份空白合同，并未载明具体的借款期限、借款利率及还款方式等内容。该部分内容系原告工作人员时候人工补填的，并未获得答辩人&lt;personname&gt;的确认，也非&lt;personname&gt;的真实意思表示。故原告要求答辩人&lt;personname&gt;支付罚息、复利的诉讼请求于法无据；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>答辩人&lt;personname&gt;对原告在起诉状中主张的借款金额不予认可。答辩人&lt;personname&gt;于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日向原告归还了本金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元，故本金实际欠付本金为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>152000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元，而非原告诉请的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>153000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本案事实上系答辩人&lt;personname&gt;因资金周转需要而向原告借款，借款金额均系本人使用，与本案其他三被告无关。现发生纠纷也系答辩人资金周转困难所致，答辩人&lt;personname&gt;至始至终愿意承担还款责任，从未恶意拖延，故希望原告能免除其他三位的还款责任并再适当宽限还款期限。综上，原告的部分起诉内容与事实不符，部分诉请于法无据。为此，请求贵院依法查清全部事实，作出判决。陈述完毕。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原、被告之间的借款合同关系依法成立，被告&lt;personname&gt;在贷款到期后未还款，应承担还款责任，被告&lt;personname&gt;应承担共同还款责任，被告&lt;personname&gt;、&lt;personname&gt;也应当承担保证责任。请法庭依法判决，支持原告的诉讼请求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>今天，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法院依照《中华人民共和国民事诉讼法》第一百三十四条之规定，将对原告&lt;personname&gt;与被告&lt;personname&gt;民间借贷纠纷一案进行公开审理。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天到庭的是&lt;personname&gt;律师。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法院，今天依法公开审理原告&lt;personname&gt;与被告&lt;personname&gt;民间借贷纠纷一案。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在由被告&lt;personname&gt;答辩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一、原告&lt;personname&gt;在起诉状中主张于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日分三次向答辩人汇款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万元，答辩人于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日向其出具借条的事实，答辩人予以确认。在本案中，系由原告&lt;personname&gt;向杭州银行贷款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万元，再出借给答辩人使用，约定借款期间银行利息将按时打入原告账户。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以同样形式向原告借款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万元，原告也已提起诉讼，案号为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，两笔借款的利息答辩人按月一并通过支付宝支付给原告，由原告支付给银行。二、原告第二项诉讼请求主张按年利率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 6%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算，没有事实与法律依据。根据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《最高人民法院关于审理民间借贷案件适用法律若干问题的规定》第二十九条第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项之规定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:“ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>既未约定借期内的利率，也未约定逾期利率，出借人主张借款人自逾期还款之日起按照年利率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付资金占用期间利息的，人民法院应予支持。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在本案，双方对借款利息是有约定的，即答辩人按银行贷款利率向原告支付利息。原告应当就银行贷款利率提供证据证明，再据此计算答辩人应当承担的具体利息，而非简单按年利率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算即可。而且，原告起诉后，答辩人在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月的利息支付给原告。现原告主张自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日起按照年利率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算逾期利息，答辩人认为起算时间有所不当，请求法庭予以调整。答辩完毕。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被告&lt;personname&gt;举证。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被告&lt;personname&gt;，你方是否有证据证明签署的《保证借款合同》系空白合同？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被告&lt;personname&gt;于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日向原告归还本金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Today, in accordance with Article 134 of the Civil Procedure Law of the people's Republic of China, the people's Court of&lt;personname&gt; will hear the case of the plaintiff &lt;personname&gt;  suing the defendant &lt;personname&gt;, &lt;personname&gt;, &lt;personname&gt; and &lt;personname&gt; about the financial loan contract dispute in public. Now check the identity and authorization of the parties and their agents ad litem. The plaintiff states the identity of the plaintiff, the identity of the agent and the authority of the agent.</t>
+  </si>
+  <si>
     <t>End of statement.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原告代理人出示证件。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>出示完毕。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被告陈述被告的身份情况以及代理人身份情况和代理权限。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陈述完毕。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被告代理人出示证件。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有异议。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当事人对各方出庭人员没有异议，到庭当事人及其他诉讼参与人符合法律规定，可以参加本案诉讼。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原告是否听清？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被告是否听清？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根据以上规定，各方当事人如果认为审判人员、书记员及鉴定人、勘验人等与本案有利害关系或其他关系，可能影响到本案的公正审理的，应当说明理由，申请回避。原告是否申请回避？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在以下的庭审过程中，有必要提醒各方当事人：庭审中如果对法官的指令和相对方的意见没有理解，可以要求进一步解释；各方均有平等的机会陈述和辩解，因此一方在发言的过程中，相对方未经法官许可不得打断其陈述；要尊重相对方的人格，不得以攻击性的言辞侮辱他人。原告是否听清？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根据《中华人民共和国民事诉讼法》第一百三十八条的规定，现在进行法庭调查。原告陈述起诉的诉讼请求以及事实和理由。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下面由双方当事人进行举证质证。提醒各方注意，举证时应对证据名称及证明内容作简要说明，并出示证据原件。下面由原告举证。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保证借款合同，证明相关被告的借款担保关系。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>共同债务确认书，证明第二被告的债务事实。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>借款借据，证明原告放款的事实。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>普通贷款还本还息清单，证明截至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日所欠贷款本息情况。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对被告提交的证据的真实性、合法性和关联性均无异议。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双方当事人有无新证据提供？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双方当事人在事实方面有无补充？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双方当事人是否需要向对方发问？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下面进行法庭询问，由主审法官主持法庭询问。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证据是没有的。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原告方对被告的陈述是否有异议？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原告陈述案涉贷款的借款金额和借款期限。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>借款金额为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万，借款期限为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>除了原告认可的还款外，我方于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日归还本金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>两被告以保证人的身份在《保证借款合同》上签名捺印，故应当承担保证责任。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我方认为原告的诉请中本金应减去</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元，对于其他的未还款项，我方都是认可的，但是目前还款能力有限，希望原告对利息予以减免。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>法庭辩论结束，下面根据告规定，由双方当事人做最后陈述。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请法院依法判决。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>希望原告免除其他三个被告的责任。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根据法律规定征询一下双方当事人的意见，是否愿意调解？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>同意调解。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目前没有还款能力，不调解了。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>鉴于双方未达成具体的调解方案，本庭不再进行调解程序。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>今天开庭到此结束，闭庭！</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The defendants &lt;personname&gt;, &lt;personname&gt; and &lt;personname&gt; did not appear in court after being legally summoned by the court. The plaintiff represented the identity of the defendants &lt;personname&gt;, &lt;personname&gt; and &lt;personname&gt; to the court.</t>
+  </si>
+  <si>
+    <t>The people's Court of&lt;personname&gt; heard the case of the plaintiff &lt;personname&gt;, the defendant &lt;personname&gt;, &lt;personname&gt;, &lt;personname&gt; and &lt;personname&gt; about the financial loan contract in public according to law. Now the court is open. According to the second paragraph of Article 39 of the Civil Procedure Law of the people's Republic of China, summary procedure is applicable to this case. According to the national law, the parties to the civil procedure enjoy the following rights and obligations in the litigation activities: the original, the defendant and the three people are equal in the litigation, and they have the rights to apply for withdrawal, provide evidence, state facts, debate, request mediation, apply for execution, etc. The plaintiff may waive or change the claim, and the defendant may acknowledge or refute the plaintiff's claim and file a counterclaim; with the permission of this court, the parties may consult the trial materials of this case. Both parties are also obliged to abide by the procedure and consciously perform the legally effective judgments, rulings and mediation. If a party who has to appear in court is summoned by the people's court according to law and fails to arrive without a proper reason or withdraws from court without permission, the plaintiff's court shall be automatically dismissed; the defendant may be judged by default, the litigant's speech or evidence must be realistic, and the person who makes false evidence or falsifies facts shall be held liable.</t>
+  </si>
+  <si>
+    <t>The defendant &lt;personname&gt; replied.</t>
+  </si>
+  <si>
+    <t>In the case of dispute over the financial loan contract between the respondent and the plaintiff &lt;personname&gt;, in response to the plaintiff's claim, the respondent replied as follows: 1. The respondent &lt;personname&gt; has no objection to the loan relationship in this case, but has objection to some facts. In fact, when signing the contract in this case, the plaintiff asked &lt;personname&gt;, the respondent, to sign a blank contract, which did not specify the specific loan period, loan interest rate and repayment method. This part was manually filled in by the plaintiff's staff, which was not confirmed by the respondent &lt;personname&gt;, nor was it the true meaning of &lt;personname&gt;. Therefore, the plaintiff's claim that &lt;personname&gt;, the respondent, should pay the penalty interest and compound interest, has no basis in law; 2. &lt;personname&gt;, the respondent, does not approve the loan amount claimed by the plaintiff in the complaint. The respondent &lt;personname&gt; returned the principal of 1000 yuan to the plaintiff on September 15, 2019, so the actual principal owed was 152000 yuan, not 153000 yuan as originally told; 3. In fact, the respondent &lt;personname&gt; borrowed money from the plaintiff due to the need of capital turnover, and the loan amount was used by himself, which had nothing to do with the other three defendants in this case. Now the dispute is also caused by the respondent's capital turnover difficulties. &lt;personname&gt; the respondent, is willing to bear the repayment responsibility from the beginning to the end, and has never maliciously delayed. Therefore, we hope that the plaintiff can exempt the other three from the repayment responsibility and appropriately extend the repayment period. To sum up, part of the plaintiff's prosecution content is inconsistent with the facts, and part of the lawsuit has no basis in the law. Therefore, we request your court to find out all the facts and make a judgment according to law. End of statement.</t>
+  </si>
+  <si>
+    <t>The defendants &lt;personname&gt;,  &lt;personname&gt; and &lt;personname&gt; did not appear in court, and did not submit written defense opinions to the court before the court, which is deemed as a waiver of the right of defense.</t>
+  </si>
+  <si>
+    <t>The defendant &lt;personname&gt; issued cross examination opinions.</t>
+  </si>
+  <si>
+    <t>There is no objection to the authenticity, legality and relevance of the above evidences 1 to 3. For evidence 4, the defendant &lt;personname&gt; returned the principal of 1000 yuan on September 15, 2019, so the plaintiff's list is not comprehensive.</t>
+  </si>
+  <si>
+    <t>The defendant &lt;personname&gt; will give evidence.</t>
+  </si>
+  <si>
+    <t>The defendants &lt;personname&gt;, &lt;personname&gt; and &lt;personname&gt; did not appear in the court, and did not submit written cross examination opinions to the court before the court, which is regarded as a waiver of the right of proof and cross examination.</t>
+  </si>
+  <si>
+    <t>Defendant &lt;personname&gt;, do you have any evidence to prove that the signed "guaranteed loan contract" is a blank contract?</t>
+  </si>
+  <si>
+    <t>In case of any objection, both parties know the main terms of the contract, and the statement of the defendant &lt;personname&gt; is obviously inconsistent with the evidence provided by the plaintiff.</t>
+  </si>
+  <si>
+    <t>The defendant &lt;personname&gt; stated the repayment of the loan involved in the case.</t>
+  </si>
+  <si>
+    <t>What is the basis of the plaintiff's statement requiring the defendants  &lt;personname&gt; and &lt;personname&gt; to bear the guarantee liability?</t>
+  </si>
+  <si>
+    <t>The loan contract relationship between the plaintiff and the defendant is established in accordance with the law. If the defendant &lt;personname&gt; fails to repay after the loan expires, he shall bear the repayment responsibility. The defendant &lt;personname&gt; shall bear the joint repayment responsibility. The defendant &lt;personname&gt;and &lt;personname&gt; shall also bear the guarantee responsibility. The court is requested to make a judgment according to law to support the plaintiff's claim.</t>
   </si>
   <si>
     <r>
@@ -2969,1651 +4501,90 @@
       </rPr>
       <t>！</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Today, according to Article 134 of the Civil Procedure Law of the people's Republic of China, the people's Court of&lt;personname&gt; will hear the case of dispute over private loan between the plaintiff &lt;personname&gt; and the defendant &lt;personname&gt; in public.</t>
+  </si>
+  <si>
+    <t>Today's lawyer &lt;personname&gt; is in court.</t>
+  </si>
+  <si>
+    <t>x people's court, in accordance with the law, today heard the case of the dispute between the plaintiff &lt;personname&gt; and the defendant &lt;personname&gt; over private lending.</t>
+  </si>
+  <si>
+    <t>Now the defendant, &lt;personname&gt;,  will answer.</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> In the indictment, the plaintiff &lt;personname&gt; claims to remit 200000 yuan to the respondent in three times on May 23 and 24, 2019, and the respondent shall confirm the fact that the respondent issued a debit note to it on May 23, 2019. In this case, the plaintiff &lt;personname&gt; borrowed 200000 yuan from the Bank of Hangzhou, and then lent it to the respondent for use. It is agreed that the bank interest will be paid to the plaintiff's account on time during the loan period. In May 2019 27, 100 thousand yuan was paid to the plaintiff in the same form, and the plaintiff also filed a lawsuit. The case number is x. The interest of the two borrowers is paid by the Alipay to the plaintiff on a monthly basis, and the plaintiff is paid to the bank by the plaintiff. 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The plaintiff's claim in the second claim is based on the annual interest rate of 6%, which has no factual and legal basis. According to the provisions of Article 29 (1) of the provisions of the Supreme People's Court on Several Issues concerning the application of law in the trial of private lending cases, "if neither the interest rate within the borrowing period nor the overdue interest rate has been stipulated, and the lender claims that the borrower shall pay the interest during the period of fund occupation at the annual interest rate of 6% from the date of overdue repayment, the people's court shall support it." In this case, both parties have agreed on loan interest, that is, the respondent shall pay interest to the plaintiff according to the bank loan interest rate. The plaintiff shall provide evidence to prove the interest rate of the bank loan, and then calculate the specific interest that the respondent shall bear, rather than simply calculating the interest rate at 6% per annum. Moreover, after the plaintiff sued, the respondent paid the interest of October 2019 to the plaintiff on October 20, 2019. Now the plaintiff claims that the overdue interest shall be calculated at the annual interest rate of 6% from September 21, 2019. In the opinion of the respondent, the starting time is improper and the plaintiff requests the court to adjust it. The defense is completed.</t>
+    </r>
+  </si>
+  <si>
+    <t>The defendant &lt;personname&gt; adduces evidence.</t>
   </si>
   <si>
     <t>被告&lt;personname&gt;、&lt;personname&gt;、&lt;personname&gt;经本院合法传唤未到庭，原告代为向法陈述被告&lt;personname&gt;、&lt;personname&gt;、&lt;personname&gt;的身份情况。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The defendants &lt;personname&gt;, &lt;personname&gt; and &lt;personname&gt; did not appear in court after being legally summoned by the court. The plaintiff represented the identity of the defendants &lt;personname&gt;, &lt;personname&gt; and &lt;personname&gt; to the court.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被告&lt;personname&gt;答辩。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The defendant &lt;personname&gt; replied.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被告&lt;personname&gt;、&lt;personname&gt;、&lt;personname&gt;未到庭，庭前也未向本院提交书面的答辩意见，视为放弃答辩的权利。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The defendants &lt;personname&gt;,  &lt;personname&gt; and &lt;personname&gt; did not appear in court, and did not submit written defense opinions to the court before the court, which is deemed as a waiver of the right of defense.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被告&lt;personname&gt;发表质证意见。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The defendant &lt;personname&gt; issued cross examination opinions.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对上述证据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>至证据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的真实性、合法性和关联性均无异议。对证据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，被告&lt;personname&gt;于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日曾归还本金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元，故原告的清单不全面。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>There is no objection to the authenticity, legality and relevance of the above evidences 1 to 3. For evidence 4, the defendant &lt;personname&gt; returned the principal of 1000 yuan on September 15, 2019, so the plaintiff's list is not comprehensive.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下面由被告&lt;personname&gt;举证。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The defendant &lt;personname&gt; will give evidence.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>还款凭证，证明被告&lt;personname&gt;于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日归还本金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>1. The defendant &lt;personname&gt; and &lt;personname&gt; returned the principal of the loan of RMB 153000, the default interest of RMB 960.22 and the compound interest of RMB 1.65 to the plaintiff &lt;personname&gt; (the default interest and compound interest temporarily calculated to August 7, 2019, and then to the date of actual settlement, based on RMB 153961.87, calculated separately according to the standard of 7.7187495 of the monthly interest rate); 2. The defendant &lt;personname&gt; shall bear joint and several guarantee liability for the above payment obligation of the defendant &lt;personname&gt;; and the defendant &lt;personname&gt; shall bear joint and several guarantee liability for the above payment obligation of the defendant &lt;personname&gt; The above payment obligation of the defendant &lt;personname&gt; shall bear joint and several guarantee liability; 3. The case acceptance fee and preservation fee shall be borne by each defendant. End of statement.</t>
   </si>
   <si>
     <t>Repayment certificate, proving that the defendant &lt;personname&gt; returned the principal of RMB 1000 on September 15, 2019.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被告&lt;personname&gt;、&lt;personname&gt;、&lt;personname&gt;未到庭，庭前也未向本院提交书面的质证意见，视为放弃举证、质证的权利。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The defendants &lt;personname&gt;, &lt;personname&gt; and &lt;personname&gt; did not appear in the court, and did not submit written cross examination opinions to the court before the court, which is regarded as a waiver of the right of proof and cross examination.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被告&lt;personname&gt;于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日向原告归还本金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被告&lt;personname&gt;，你方是否有证据证明签署的《保证借款合同》系空白合同？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defendant &lt;personname&gt;, do you have any evidence to prove that the signed "guaranteed loan contract" is a blank contract?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有异议，合同中的主要条款，双方都是知道的，而且被告&lt;personname&gt;的陈述明显与原告的举证不符。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In case of any objection, both parties know the main terms of the contract, and the statement of the defendant &lt;personname&gt; is obviously inconsistent with the evidence provided by the plaintiff.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被告&lt;personname&gt;陈述案涉贷款的还款情况。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The defendant &lt;personname&gt; stated the repayment of the loan involved in the case.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原告陈述要求被告&lt;personname&gt;、&lt;personname&gt;承担保证责任的依据？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is the basis of the plaintiff's statement requiring the defendants  &lt;personname&gt; and &lt;personname&gt; to bear the guarantee liability?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>今天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>法院依照《中华人民共和国民事诉讼法》第一百三十四条之规定，将对原告&lt;personname&gt;诉被告&lt;personname&gt;、&lt;personname&gt;、&lt;personname&gt;、&lt;personname&gt;金融借款合同纠纷一案进行公开审理。现在核对当事人及其诉讼代理人身份及委托权限。原告陈述原告的身份情况以及代理人身份情况和代理权限。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Today, in accordance with Article 134 of the Civil Procedure Law of the people's Republic of China, the people's Court of x will hear the case of the plaintiff &lt;personname&gt;  suing the defendant &lt;personname&gt;, &lt;personname&gt;, &lt;personname&gt; and &lt;personname&gt; about the financial loan contract dispute in public. Now check the identity and authorization of the parties and their agents ad litem. The plaintiff states the identity of the plaintiff, the identity of the agent and the authority of the agent.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>法院，今天依法公开审理原告&lt;personname&gt;诉被告&lt;personname&gt;、&lt;personname&gt;、&lt;personname&gt;、&lt;personname&gt;金融借款合同纠纷一案，现在开庭。根据《中华人民共和国民事诉讼法》第三十九条第二款之规定，本案适用简易程序。根据国家法律规定，民事诉讼当事人在诉讼活动享有以下权利和义务：原、被告及第三人在诉讼中地位是平等的，有申请回避、提供证据、陈述事实，进行辩论，请求调解，申请执行等权利。原告可以放弃或变更诉讼请求，被告可以承认或反驳原告的诉讼请求，提起反诉；经本院许可，当事人可以查阅本案的庭审材料。双方当事人也有义务遵守诉讼程序，自觉履行已发生法律效力的判决、裁定和调解。必须到庭的当事人经人民法院依法传唤，无正当理由不到或者未经许可中途退庭者，对原告本庭按自动撤诉处理；对被告可以缺席判决，诉讼当事人发言或提供证据必须实事求是，制造伪证或捏造事实者要负法律责任。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The people's Court of x heard the case of the plaintiff &lt;personname&gt;, the defendant &lt;personname&gt;, &lt;personname&gt;, &lt;personname&gt; and &lt;personname&gt; about the financial loan contract in public according to law. Now the court is open. According to the second paragraph of Article 39 of the Civil Procedure Law of the people's Republic of China, summary procedure is applicable to this case. According to the national law, the parties to the civil procedure enjoy the following rights and obligations in the litigation activities: the original, the defendant and the three people are equal in the litigation, and they have the rights to apply for withdrawal, provide evidence, state facts, debate, request mediation, apply for execution, etc. The plaintiff may waive or change the claim, and the defendant may acknowledge or refute the plaintiff's claim and file a counterclaim; with the permission of this court, the parties may consult the trial materials of this case. Both parties are also obliged to abide by the procedure and consciously perform the legally effective judgments, rulings and mediation. If a party who has to appear in court is summoned by the people's court according to law and fails to arrive without a proper reason or withdraws from court without permission, the plaintiff's court shall be automatically dismissed; the defendant may be judged by default, the litigant's speech or evidence must be realistic, and the person who makes false evidence or falsifies facts shall be held liable.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被告&lt;personname&gt;、&lt;personname&gt;归还原告&lt;personname&gt;借款本金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>153000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元、罚息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>960.22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元、复利</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1.65</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>暂算至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日，此后至实际清偿之日止的罚息和复利，以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>153961.87</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元为基数，按照月利率千分之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7.7187495</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的标准另行计算</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被告&lt;personname&gt;对被告&lt;personname&gt;的上述付款义务承担连带保证责任；被告&lt;personname&gt;对被告&lt;personname&gt;的上述付款义务承担连带保证责任；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本案案件受理费、保全费由各被告负担。陈述完毕。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. The defendant &lt;personname&gt; and &lt;personname&gt; returned the principal of the loan of RMB 153000, the default interest of RMB 960.22 and the compound interest of RMB 1.65 to the plaintiff &lt;personname&gt; (the default interest and compound interest temporarily calculated to August 7, 2019, and then to the date of actual settlement, based on RMB 153961.87, calculated separately according to the standard of 7.7187495 of the monthly interest rate); 2. The defendant &lt;personname&gt; shall bear joint and several guarantee liability for the above payment obligation of the defendant &lt;personname&gt;; and the defendant &lt;personname&gt; shall bear joint and several guarantee liability for the above payment obligation of the defendant &lt;personname&gt; The above payment obligation of the defendant &lt;personname&gt; shall bear joint and several guarantee liability; 3. The case acceptance fee and preservation fee shall be borne by each defendant. End of statement.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>答辩人与原告&lt;personname&gt;之间金融借款合同纠纷一案，针对原告的诉讼请求，答辩人答辩如下：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>答辩人&lt;personname&gt;对本案存在借款关系没有异议，但对部分事实有异议。事实上，本案签订合同时，原告让答辩人&lt;personname&gt;所签订的系一份空白合同，并未载明具体的借款期限、借款利率及还款方式等内容。该部分内容系原告工作人员时候人工补填的，并未获得答辩人&lt;personname&gt;的确认，也非&lt;personname&gt;的真实意思表示。故原告要求答辩人&lt;personname&gt;支付罚息、复利的诉讼请求于法无据；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>答辩人&lt;personname&gt;对原告在起诉状中主张的借款金额不予认可。答辩人&lt;personname&gt;于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日向原告归还了本金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元，故本金实际欠付本金为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>152000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元，而非原告诉请的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>153000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本案事实上系答辩人&lt;personname&gt;因资金周转需要而向原告借款，借款金额均系本人使用，与本案其他三被告无关。现发生纠纷也系答辩人资金周转困难所致，答辩人&lt;personname&gt;至始至终愿意承担还款责任，从未恶意拖延，故希望原告能免除其他三位的还款责任并再适当宽限还款期限。综上，原告的部分起诉内容与事实不符，部分诉请于法无据。为此，请求贵院依法查清全部事实，作出判决。陈述完毕。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In the case of dispute over the financial loan contract between the respondent and the plaintiff &lt;personname&gt;, in response to the plaintiff's claim, the respondent replied as follows: 1. The respondent &lt;personname&gt; has no objection to the loan relationship in this case, but has objection to some facts. In fact, when signing the contract in this case, the plaintiff asked &lt;personname&gt;, the respondent, to sign a blank contract, which did not specify the specific loan period, loan interest rate and repayment method. This part was manually filled in by the plaintiff's staff, which was not confirmed by the respondent &lt;personname&gt;, nor was it the true meaning of &lt;personname&gt;. Therefore, the plaintiff's claim that &lt;personname&gt;, the respondent, should pay the penalty interest and compound interest, has no basis in law; 2. &lt;personname&gt;, the respondent, does not approve the loan amount claimed by the plaintiff in the complaint. The respondent &lt;personname&gt; returned the principal of 1000 yuan to the plaintiff on September 15, 2019, so the actual principal owed was 152000 yuan, not 153000 yuan as originally told; 3. In fact, the respondent &lt;personname&gt; borrowed money from the plaintiff due to the need of capital turnover, and the loan amount was used by himself, which had nothing to do with the other three defendants in this case. Now the dispute is also caused by the respondent's capital turnover difficulties. &lt;personname&gt; the respondent, is willing to bear the repayment responsibility from the beginning to the end, and has never maliciously delayed. Therefore, we hope that the plaintiff can exempt the other three from the repayment responsibility and appropriately extend the repayment period. To sum up, part of the plaintiff's prosecution content is inconsistent with the facts, and part of the lawsuit has no basis in the law. Therefore, we request your court to find out all the facts and make a judgment according to law. End of statement.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原、被告之间的借款合同关系依法成立，被告&lt;personname&gt;在贷款到期后未还款，应承担还款责任，被告&lt;personname&gt;应承担共同还款责任，被告&lt;personname&gt;、&lt;personname&gt;也应当承担保证责任。请法庭依法判决，支持原告的诉讼请求。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The loan contract relationship between the plaintiff and the defendant is established in accordance with the law. If the defendant &lt;personname&gt; fails to repay after the loan expires, he shall bear the repayment responsibility. The defendant &lt;personname&gt; shall bear the joint repayment responsibility. The defendant &lt;personname&gt;and &lt;personname&gt; shall also bear the guarantee responsibility. The court is requested to make a judgment according to law to support the plaintiff's claim.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>今天，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>法院依照《中华人民共和国民事诉讼法》第一百三十四条之规定，将对原告&lt;personname&gt;与被告&lt;personname&gt;民间借贷纠纷一案进行公开审理。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Today, according to Article 134 of the Civil Procedure Law of the people's Republic of China, the people's Court of x will hear the case of dispute over private loan between the plaintiff &lt;personname&gt; and the defendant &lt;personname&gt; in public.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天到庭的是&lt;personname&gt;律师。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Today's lawyer &lt;personname&gt; is in court.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>法院，今天依法公开审理原告&lt;personname&gt;与被告&lt;personname&gt;民间借贷纠纷一案。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x people's court, in accordance with the law, today heard the case of the dispute between the plaintiff &lt;personname&gt; and the defendant &lt;personname&gt; over private lending.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在由被告&lt;personname&gt;答辩。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Now the defendant, &lt;personname&gt;,  will answer.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一、原告&lt;personname&gt;在起诉状中主张于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日分三次向答辩人汇款</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万元，答辩人于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日向其出具借条的事实，答辩人予以确认。在本案中，系由原告&lt;personname&gt;向杭州银行贷款</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万元，再出借给答辩人使用，约定借款期间银行利息将按时打入原告账户。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>27</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以同样形式向原告借款</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万元，原告也已提起诉讼，案号为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，两笔借款的利息答辩人按月一并通过支付宝支付给原告，由原告支付给银行。二、原告第二项诉讼请求主张按年利率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 6%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计算，没有事实与法律依据。根据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>《最高人民法院关于审理民间借贷案件适用法律若干问题的规定》第二十九条第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> )</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项之规定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">:“ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>既未约定借期内的利率，也未约定逾期利率，出借人主张借款人自逾期还款之日起按照年利率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>6%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支付资金占用期间利息的，人民法院应予支持。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在本案，双方对借款利息是有约定的，即答辩人按银行贷款利率向原告支付利息。原告应当就银行贷款利率提供证据证明，再据此计算答辩人应当承担的具体利息，而非简单按年利率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>6%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计算即可。而且，原告起诉后，答辩人在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日将</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月的利息支付给原告。现原告主张自</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日起按照年利率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>6%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计算逾期利息，答辩人认为起算时间有所不当，请求法庭予以调整。答辩完毕。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> In the indictment, the plaintiff &lt;personname&gt; claims to remit 200000 yuan to the respondent in three times on May 23 and 24, 2019, and the respondent shall confirm the fact that the respondent issued a debit note to it on May 23, 2019. In this case, the plaintiff &lt;personname&gt; borrowed 200000 yuan from the Bank of Hangzhou, and then lent it to the respondent for use. It is agreed that the bank interest will be paid to the plaintiff's account on time during the loan period. In May 2019 27, 100 thousand yuan was paid to the plaintiff in the same form, and the plaintiff also filed a lawsuit. The case number is x. The interest of the two borrowers is paid by the Alipay to the plaintiff on a monthly basis, and the plaintiff is paid to the bank by the plaintiff. 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> The plaintiff's claim in the second claim is based on the annual interest rate of 6%, which has no factual and legal basis. According to the provisions of Article 29 (1) of the provisions of the Supreme People's Court on Several Issues concerning the application of law in the trial of private lending cases, "if neither the interest rate within the borrowing period nor the overdue interest rate has been stipulated, and the lender claims that the borrower shall pay the interest during the period of fund occupation at the annual interest rate of 6% from the date of overdue repayment, the people's court shall support it." In this case, both parties have agreed on loan interest, that is, the respondent shall pay interest to the plaintiff according to the bank loan interest rate. The plaintiff shall provide evidence to prove the interest rate of the bank loan, and then calculate the specific interest that the respondent shall bear, rather than simply calculating the interest rate at 6% per annum. Moreover, after the plaintiff sued, the respondent paid the interest of October 2019 to the plaintiff on October 20, 2019. Now the plaintiff claims that the overdue interest shall be calculated at the annual interest rate of 6% from September 21, 2019. In the opinion of the respondent, the starting time is improper and the plaintiff requests the court to adjust it. The defense is completed.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被告&lt;personname&gt;举证。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The defendant &lt;personname&gt; adduces evidence.</t>
+  </si>
+  <si>
+    <t>The defendant &lt;personname&gt; returned the principal of RMB 1000 to the plaintiff on September 15, 2019.</t>
+  </si>
+  <si>
+    <t>In addition to the repayment approved by the plaintiff, we will repay the principal of RMB 1000 on September 15, 2019.</t>
+  </si>
+  <si>
+    <t>In view of the fact that the two parties have not reached a specific mediation plan, the court will no longer conduct mediation proceedings. In view of the fact that the case is clear and the evidence is sufficient, the court pronounced it in court. The court believes that the guarantee loan contract and the joint debt confirmation involved in the case are the true intention of all parties, are legal and effective, and have legal binding force on all parties. The plaintiff has fulfilled the loan obligation according to the contract, and the defendant &lt;personname&gt; has failed to repay the loan according to the contract, which has constituted a breach of contract. The plaintiff has the right to require him to repay all the loan principal and interest, to require the joint repayment person to bear the joint repayment responsibility, and to require the guarantor to bear the guarantee responsibility according to the contract. The plaintiff claimed that the loan principal and related interest fees were wrong, and the court adjusted them according to law. Until September 15, 2019, the defendant &lt;personname&gt; still owed the plaintiff 152000 yuan of loan principal, 984 yuan of default interest and 0.11 yuan of compound interest. To sum up, in accordance with articles 205, 206 and 207 of the people's Republic of China, Article 18 and 31 of the guarantee law of the people's Republic of China, Article 64, paragraph 1 and 144 of the Civil Procedure Law of the people's Republic of China, the judgment is as follows: all the defendants stand up, the defendant &lt;personname&gt; takes effect in this judgment Within ten days from the date of repayment, the principal of the loan of suix bank is 152000 yuan, the default interest is 984 yuan, and the compound interest is 0.11 yuan (the default interest temporarily calculated to September 15, 2019, and then to the date of actual settlement, based on the unpaid principal, is calculated according to the standard of monthly interest rate of 7.7187495 ‰); 2. The defendant &lt;personname&gt; shall be jointly responsible for the repayment of the above debts of the defendant &lt;personname&gt;; 3. The defendant &lt;personname&gt; and &lt;personname&gt; shall be jointly responsible for the repayment of the above debts of the defendant &lt;personname&gt; The defendant &lt;personname&gt; and &lt;personname&gt; shall have the right to recover from the defendant &lt;personname&gt; and &lt;personname&gt; after they bear the guarantee liability. Fourthly, they shall reject other claims of the plaintiff&lt;personname&gt; bank. If the defendant fails to perform the obligation of payment of money within the period specified in this judgment, he shall double the interest on the debt during the period of delay in performance in accordance with Article 253 of the Civil Procedure Law of the people's Republic of China. The case acceptance fee is 3379.24 yuan, half of which is 1689.62 yuan. The plaintiff&lt;personname&gt; bank shall bear 9.62 yuan, and the defendant &lt;personname&gt;, &lt;personname&gt;, &lt;personname&gt; and &lt;personname&gt; shall jointly bear 1680 yuan. Please sit down. The plaintiff&lt;personname&gt; bank shall apply to the court for refund within 15 days from the effective date of this judgment; the defendant &lt;personname&gt;, &lt;personname&gt;, &lt;personname&gt; and &lt;personname&gt; shall pay the court the legal fees to be borne within 7 days from the effective date of this judgment. The judgment has been delivered to both parties electronically. Have you received it?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="12"/>
@@ -4973,27 +4944,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="87.125" customWidth="1"/>
+    <col min="4" max="4" width="160.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:4" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5009,13 +4981,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -5023,27 +4995,27 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -5051,27 +5023,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -5079,27 +5051,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -5107,13 +5079,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -5121,13 +5093,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -5135,27 +5107,27 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -5163,13 +5135,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -5177,13 +5149,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -5191,13 +5163,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
@@ -5205,13 +5177,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>15</v>
@@ -5219,13 +5191,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>16</v>
@@ -5233,13 +5205,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>15</v>
@@ -5247,13 +5219,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>17</v>
@@ -5261,13 +5233,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
@@ -5275,41 +5247,41 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>19</v>
@@ -5317,13 +5289,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>20</v>
@@ -5331,27 +5303,27 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>21</v>
@@ -5359,27 +5331,27 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>22</v>
@@ -5387,13 +5359,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>23</v>
@@ -5401,13 +5373,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>24</v>
@@ -5415,13 +5387,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>25</v>
@@ -5429,13 +5401,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>26</v>
@@ -5443,13 +5415,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>26</v>
@@ -5457,13 +5429,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>27</v>
@@ -5471,13 +5443,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>28</v>
@@ -5485,13 +5457,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>29</v>
@@ -5499,13 +5471,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>30</v>
@@ -5513,13 +5485,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>31</v>
@@ -5527,13 +5499,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>32</v>
@@ -5541,13 +5513,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>33</v>
@@ -5555,13 +5527,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>34</v>
@@ -5569,13 +5541,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>35</v>
@@ -5583,13 +5555,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>34</v>
@@ -5597,13 +5569,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>36</v>
@@ -5611,13 +5583,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>37</v>
@@ -5625,13 +5597,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>38</v>
@@ -5639,13 +5611,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>39</v>
@@ -5653,13 +5625,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>40</v>
@@ -5667,13 +5639,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>41</v>
@@ -5681,13 +5653,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>42</v>
@@ -5695,13 +5667,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>43</v>
@@ -5709,13 +5681,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>44</v>
@@ -5723,13 +5695,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>45</v>
@@ -5737,13 +5709,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>46</v>
@@ -5751,13 +5723,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>47</v>
@@ -5765,13 +5737,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>38</v>
@@ -5779,13 +5751,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>48</v>
@@ -5793,13 +5765,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>49</v>
@@ -5807,13 +5779,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>50</v>
@@ -5821,13 +5793,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>51</v>
@@ -5835,13 +5807,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>51</v>
@@ -5849,13 +5821,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>52</v>
@@ -5863,13 +5835,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>53</v>
@@ -5877,13 +5849,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>54</v>
@@ -5891,13 +5863,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>55</v>
@@ -5905,13 +5877,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>56</v>
@@ -5919,13 +5891,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>57</v>
@@ -5933,13 +5905,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>58</v>
@@ -5947,13 +5919,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>59</v>
@@ -5961,13 +5933,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>60</v>
@@ -5975,13 +5947,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>61</v>
@@ -5989,13 +5961,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>62</v>
@@ -6003,13 +5975,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>63</v>
@@ -6017,13 +5989,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>64</v>
@@ -6031,13 +6003,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>65</v>
@@ -6045,13 +6017,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>66</v>
@@ -6066,21 +6038,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="D43" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="53.125" customWidth="1"/>
+    <col min="4" max="4" width="188.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="13" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="12.95" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="18">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -6096,41 +6072,41 @@
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>67</v>
@@ -6138,13 +6114,13 @@
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>68</v>
@@ -6152,13 +6128,13 @@
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>69</v>
@@ -6166,27 +6142,27 @@
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>70</v>
@@ -6194,13 +6170,13 @@
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>68</v>
@@ -6208,41 +6184,41 @@
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1">
       <c r="A11" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -6250,13 +6226,13 @@
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -6264,13 +6240,13 @@
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1">
       <c r="A15" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -6278,13 +6254,13 @@
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>71</v>
@@ -6292,27 +6268,27 @@
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1">
       <c r="A17" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>72</v>
@@ -6320,13 +6296,13 @@
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
@@ -6334,13 +6310,13 @@
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>73</v>
@@ -6348,13 +6324,13 @@
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1">
       <c r="A21" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
@@ -6362,13 +6338,13 @@
     </row>
     <row r="22" spans="1:4" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>74</v>
@@ -6376,13 +6352,13 @@
     </row>
     <row r="23" spans="1:4" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>15</v>
@@ -6390,13 +6366,13 @@
     </row>
     <row r="24" spans="1:4" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>16</v>
@@ -6404,13 +6380,13 @@
     </row>
     <row r="25" spans="1:4" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>15</v>
@@ -6418,13 +6394,13 @@
     </row>
     <row r="26" spans="1:4" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>75</v>
@@ -6432,13 +6408,13 @@
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
@@ -6446,13 +6422,13 @@
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>73</v>
@@ -6460,13 +6436,13 @@
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1">
       <c r="A29" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
@@ -6474,13 +6450,13 @@
     </row>
     <row r="30" spans="1:4" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>76</v>
@@ -6488,69 +6464,69 @@
     </row>
     <row r="31" spans="1:4" s="2" customFormat="1">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="2" customFormat="1">
       <c r="A34" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="2" customFormat="1">
       <c r="A35" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>77</v>
@@ -6558,13 +6534,13 @@
     </row>
     <row r="36" spans="1:4" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>78</v>
@@ -6572,69 +6548,69 @@
     </row>
     <row r="37" spans="1:4" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="2" customFormat="1">
       <c r="A40" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="2" customFormat="1">
       <c r="A41" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>23</v>
@@ -6642,13 +6618,13 @@
     </row>
     <row r="42" spans="1:4" s="2" customFormat="1">
       <c r="A42" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>79</v>
@@ -6656,27 +6632,27 @@
     </row>
     <row r="43" spans="1:4" s="2" customFormat="1">
       <c r="A43" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="2" customFormat="1">
       <c r="A44" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>80</v>
@@ -6684,13 +6660,13 @@
     </row>
     <row r="45" spans="1:4" s="2" customFormat="1">
       <c r="A45" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>81</v>
@@ -6698,13 +6674,13 @@
     </row>
     <row r="46" spans="1:4" s="2" customFormat="1">
       <c r="A46" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>81</v>
@@ -6712,13 +6688,13 @@
     </row>
     <row r="47" spans="1:4" s="2" customFormat="1">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>25</v>
@@ -6726,13 +6702,13 @@
     </row>
     <row r="48" spans="1:4" s="2" customFormat="1">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>81</v>
@@ -6740,7 +6716,7 @@
     </row>
     <row r="49" spans="1:4" s="2" customFormat="1">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>9</v>
@@ -6749,18 +6725,18 @@
         <v>218</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="2" customFormat="1">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>27</v>
@@ -6768,13 +6744,13 @@
     </row>
     <row r="51" spans="1:4" s="2" customFormat="1">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>81</v>
@@ -6782,13 +6758,13 @@
     </row>
     <row r="52" spans="1:4" s="2" customFormat="1">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>81</v>
@@ -6796,13 +6772,13 @@
     </row>
     <row r="53" spans="1:4" s="2" customFormat="1">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>82</v>
@@ -6810,27 +6786,27 @@
     </row>
     <row r="54" spans="1:4" s="2" customFormat="1">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>83</v>
@@ -6838,13 +6814,13 @@
     </row>
     <row r="56" spans="1:4" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>84</v>
@@ -6852,27 +6828,27 @@
     </row>
     <row r="57" spans="1:4" s="2" customFormat="1">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="2" customFormat="1">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>85</v>
@@ -6880,13 +6856,13 @@
     </row>
     <row r="59" spans="1:4" s="2" customFormat="1">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>86</v>
@@ -6894,69 +6870,69 @@
     </row>
     <row r="60" spans="1:4" s="2" customFormat="1">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="2" customFormat="1">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="2" customFormat="1">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="2" customFormat="1">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="2" customFormat="1">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>52</v>
@@ -6964,142 +6940,142 @@
     </row>
     <row r="65" spans="1:4" s="2" customFormat="1">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="2" customFormat="1">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="2" customFormat="1">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="2" customFormat="1">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="2" customFormat="1">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="2" customFormat="1">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="2" customFormat="1">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="2" customFormat="1">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="2" customFormat="1">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="2" customFormat="1">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -7111,6 +7087,40 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="5" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="5"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -7118,42 +7128,8 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="5" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="5"/>
-</pixelators>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -7162,7 +7138,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -7171,7 +7147,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -7180,7 +7156,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -7189,7 +7165,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -7198,7 +7174,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
